--- a/66-4-1-601家庭网络结构信息.xlsx
+++ b/66-4-1-601家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pilla\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45D70D-E431-47BF-A2E9-500BF87F0746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44848A6E-2CCA-407C-BB4C-71B609900865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
   <si>
     <t>用途</t>
   </si>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Mikrotik CRS326-24G-2S+</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwOS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>位置</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -201,10 +193,6 @@
   </si>
   <si>
     <t>Asus Z87</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇聚网络</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -305,10 +293,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>24-30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>千兆网口
 192.168.1.32/33</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -350,18 +334,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>旁路由</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Openwrt x64 Lean</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Supermicro SYS-E100-9APP </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>科学上网</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -482,18 +458,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBNT UniFi AP-AC-Pro</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Unifi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -514,47 +478,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>UBNT UniFi USG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>主交换机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>POE交换机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBNT UniFi Switch 8 POE-150W</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unifi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP供电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UBNT UniFi UCK Plus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络控制器、AC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置网络</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -657,6 +581,74 @@
   </si>
   <si>
     <t>网络机柜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT UniFi UDM PRO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚交换机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT Unifi Switch Aggregation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屋设备主交换、POE+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明网关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器、NAS 10G网口汇聚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openclash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch Enterprise 24 PoE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>万兆汇聚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supermicro SYS-E100-12T-C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT UniFi Wifi6-lite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Bedroom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.24</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPTV-Vlan30</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,41 +1296,65 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1727,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1752,21 +1768,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="237" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="A1" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1788,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
@@ -1806,26 +1822,26 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>155</v>
+      <c r="B3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>156</v>
+        <v>33</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -1833,21 +1849,21 @@
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="5"/>
       <c r="I4" s="7"/>
       <c r="J4" s="5"/>
@@ -1857,81 +1873,77 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>123</v>
+      <c r="C5" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G5" s="41"/>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="5"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="24"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
@@ -1940,29 +1952,25 @@
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
+      <c r="B8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1972,28 +1980,26 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="5" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -2002,30 +2008,16 @@
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
       <c r="L10" s="5"/>
@@ -2034,76 +2026,62 @@
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
@@ -2112,27 +2090,27 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="4" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
@@ -2141,168 +2119,178 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="8"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>23</v>
+      <c r="B16" s="33"/>
+      <c r="C16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="13">
-        <v>9</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="13">
-        <v>50010</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>112</v>
-      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="13">
+        <v>9</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="13">
+        <v>50010</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>153</v>
-      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
       <c r="L21" s="5"/>
@@ -2310,37 +2298,46 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>134</v>
+      </c>
       <c r="E23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
@@ -2349,92 +2346,85 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="8"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>92</v>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="18"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="18"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="D27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -2443,23 +2433,19 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="5" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="7" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -2468,21 +2454,23 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="23" t="s">
-        <v>141</v>
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
@@ -2491,289 +2479,283 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="29" t="s">
-        <v>19</v>
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3899</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="E31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="5">
-        <v>50875</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>98</v>
+      <c r="B32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3899</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="31"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="5">
+        <v>50875</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>43</v>
+      <c r="B34" s="31"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="5">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="5">
-        <v>9</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8"/>
+      <c r="B36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="5">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="8"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="5">
+        <v>9</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="4"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
@@ -2782,18 +2764,24 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="21"/>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2801,14 +2789,28 @@
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
@@ -2816,14 +2818,18 @@
     </row>
     <row r="43" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="21"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
@@ -2891,34 +2897,65 @@
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:L42">
-    <sortCondition ref="I5:I42"/>
-    <sortCondition ref="J5:J42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:L44">
+    <sortCondition ref="I5:I44"/>
+    <sortCondition ref="J5:J44"/>
   </sortState>
-  <mergeCells count="18">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C32"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C27:C34"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
